--- a/Data/Input/InputAddress.xlsx
+++ b/Data/Input/InputAddress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajish\Desktop\Urbis\URBIS_CaseStudy\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09FCAB6C-E8CF-4827-90E5-84682D73F61E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{452ED9F3-BD74-4BD7-ABD8-2C476B867E8B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>320 Pitt Street, Sydney, 2000</t>
   </si>
@@ -37,9 +37,6 @@
   </si>
   <si>
     <t>Address</t>
-  </si>
-  <si>
-    <t>66 Teston Lane Maules Creek 2382</t>
   </si>
 </sst>
 </file>
@@ -367,7 +364,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -406,12 +403,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="B5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
